--- a/genshin/471812615713369105_2020-12-23_10-33-55.xlsx
+++ b/genshin/471812615713369105_2020-12-23_10-33-55.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -543,10 +559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-02-09 14:45:01</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44236.61459490741</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-12-31 12:18:27</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44196.5128125</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -682,10 +694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-12-27 12:13:35</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44192.50943287037</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -754,10 +764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-12-26 05:34:39</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44191.23239583334</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -827,10 +835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-12-25 19:16:54</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44190.80340277778</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -895,10 +901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-12-25 13:12:00</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44190.55</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -966,10 +970,8 @@
           <t>3853157146</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-12-25 10:50:32</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44190.45175925926</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1045,10 +1047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-12-25 10:38:12</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44190.44319444444</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1116,10 +1116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-12-25 02:59:07</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44190.12438657408</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1191,10 +1189,8 @@
           <t>3864928924</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:50:34</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44190.03511574074</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1260,10 +1256,8 @@
           <t>3864854664</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:28:44</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44190.0199537037</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1327,10 +1321,8 @@
           <t>3853157146</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:15:52</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44190.01101851852</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1412,10 +1404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:00:03</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44190.00003472222</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1483,10 +1473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:51:33</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44189.95246527778</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1576,10 +1564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:55:39</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44189.8303125</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1651,10 +1637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:10:49</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44189.79917824074</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1718,10 +1702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:44:55</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44189.73952546297</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1789,10 +1771,8 @@
           <t>3862994814</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:10:57</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44189.7159375</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1864,10 +1844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:39:40</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44189.69421296296</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1935,10 +1913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:06:29</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44189.67116898148</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2010,10 +1986,8 @@
           <t>3862521394</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:05:35</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44189.58721064815</v>
       </c>
       <c r="I22" t="n">
         <v>7</v>
@@ -2089,10 +2063,8 @@
           <t>3859619762</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-12-24 12:53:40</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44189.53726851852</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2156,10 +2128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-12-24 12:26:34</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44189.51844907407</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2235,10 +2205,8 @@
           <t>3852406029</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-12-24 11:48:15</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44189.49184027778</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2306,10 +2274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-12-24 10:22:37</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44189.43237268519</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -2377,10 +2343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-12-24 09:57:40</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44189.41504629629</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2444,10 +2408,8 @@
           <t>3855839321</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-12-24 09:43:17</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44189.40505787037</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2519,10 +2481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-12-24 09:21:48</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44189.39013888889</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2590,10 +2550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-12-24 08:52:47</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44189.36998842593</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2662,10 +2620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-12-24 08:41:30</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44189.36215277778</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2737,10 +2693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-12-24 06:20:15</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44189.2640625</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2809,10 +2763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-12-24 03:07:56</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44189.13050925926</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2876,10 +2828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-12-24 02:41:22</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44189.11206018519</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2943,10 +2893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-12-24 02:03:18</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44189.085625</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3022,10 +2970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-12-24 01:42:50</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44189.07141203704</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3090,10 +3036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-12-24 01:23:00</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44189.05763888889</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3165,10 +3109,8 @@
           <t>3857178871</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-12-24 01:22:34</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44189.05733796296</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3240,10 +3182,8 @@
           <t>3861179857</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-12-24 01:13:05</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44189.05075231481</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3307,10 +3247,8 @@
           <t>3852892926</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-12-24 00:47:11</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44189.0327662037</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3382,10 +3320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-12-24 00:01:13</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44189.00084490741</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3449,10 +3385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-12-23 23:59:17</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44188.99950231481</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3520,10 +3454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-12-23 23:47:31</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44188.99133101852</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3591,10 +3523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-12-23 23:42:02</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44188.98752314815</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3658,10 +3588,8 @@
           <t>3855328305</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-12-23 23:35:18</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44188.98284722222</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3725,10 +3653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-12-23 23:23:22</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44188.97456018518</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3800,10 +3726,8 @@
           <t>3855328305</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-12-23 23:08:15</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44188.9640625</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3876,10 +3800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-12-23 22:46:32</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44188.94898148148</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3951,10 +3873,8 @@
           <t>3855328305</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-12-23 22:45:54</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44188.94854166666</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4030,10 +3950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-12-23 22:38:39</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44188.94350694444</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4105,10 +4023,8 @@
           <t>3859619762</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-12-23 22:38:09</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44188.94315972222</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4174,10 +4090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-12-23 22:26:42</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44188.93520833334</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4241,10 +4155,8 @@
           <t>3859437133</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-12-23 22:23:48</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44188.93319444444</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4320,10 +4232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-12-23 22:21:21</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44188.93149305556</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4391,10 +4301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-12-23 22:02:45</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44188.91857638889</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4458,10 +4366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-12-23 21:58:52</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44188.91587962963</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4521,10 +4427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-12-23 21:53:21</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44188.91204861111</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4609,10 +4513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-12-23 21:29:44</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44188.89564814815</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4672,10 +4574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-12-23 21:20:28</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44188.88921296296</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4744,10 +4644,8 @@
           <t>3858320893</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-12-23 21:02:40</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44188.87685185186</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4815,10 +4713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-12-23 20:56:00</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44188.87222222222</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4884,10 +4780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-12-23 20:27:22</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44188.85233796296</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4963,10 +4857,8 @@
           <t>3855839321</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-12-23 20:20:26</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44188.84752314815</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5042,10 +4934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-12-23 19:22:05</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44188.80700231482</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5117,10 +5007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-12-23 19:18:55</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44188.80480324074</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5188,10 +5076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-12-23 19:06:32</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44188.79620370371</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5259,10 +5145,8 @@
           <t>3853884440</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-12-23 19:03:40</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44188.79421296297</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5334,10 +5218,8 @@
           <t>3855839321</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-12-23 19:00:34</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44188.79206018519</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5405,10 +5287,8 @@
           <t>3857244753</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-12-23 19:00:33</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44188.79204861111</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5509,10 +5389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:58:33</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44188.79065972222</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5585,10 +5463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:49:26</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44188.7843287037</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5652,10 +5528,8 @@
           <t>3856761703</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:48:09</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44188.7834375</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5731,10 +5605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:37:28</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44188.77601851852</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5798,10 +5670,8 @@
           <t>3856761703</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:37:06</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44188.77576388889</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5874,10 +5744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:33:51</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44188.77350694445</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5953,10 +5821,8 @@
           <t>3853884440</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:32:30</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44188.77256944445</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6048,10 +5914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:32:11</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44188.77234953704</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6127,10 +5991,8 @@
           <t>3856761703</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:31:23</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44188.77179398148</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6206,10 +6068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:29:08</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44188.77023148148</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6281,10 +6141,8 @@
           <t>3856972142</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:21:06</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44188.76465277778</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6356,10 +6214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:13:50</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44188.75960648148</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6427,10 +6283,8 @@
           <t>3856761703</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:10:59</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44188.75762731482</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6502,10 +6356,8 @@
           <t>3852406029</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:07:08</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44188.7549537037</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6581,10 +6433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:07:04</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44188.7549074074</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6660,10 +6510,8 @@
           <t>3856761703</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:06:16</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44188.75435185185</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6739,10 +6587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:06:10</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44188.7542824074</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6819,10 +6665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:04:46</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44188.75331018519</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6883,10 +6727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:04:38</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44188.7532175926</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6970,10 +6812,8 @@
           <t>3856734089</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:02:29</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44188.75172453704</v>
       </c>
       <c r="I89" t="n">
         <v>9</v>
@@ -7069,10 +6909,8 @@
           <t>3856761703</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:02:24</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44188.75166666666</v>
       </c>
       <c r="I90" t="n">
         <v>3</v>
@@ -7168,10 +7006,8 @@
           <t>3856761521</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:02:16</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44188.75157407407</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7267,10 +7103,8 @@
           <t>3856761342</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:02:09</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44188.75149305556</v>
       </c>
       <c r="I92" t="n">
         <v>27</v>
@@ -7366,10 +7200,8 @@
           <t>3856733563</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:02:06</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44188.75145833333</v>
       </c>
       <c r="I93" t="n">
         <v>58</v>
@@ -7465,10 +7297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:02:00</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44188.75138888889</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7540,10 +7370,8 @@
           <t>3855839321</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-12-23 18:00:26</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44188.75030092592</v>
       </c>
       <c r="I95" t="n">
         <v>12</v>
@@ -7609,10 +7437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-12-23 17:58:44</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44188.74912037037</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7688,10 +7514,8 @@
           <t>3852621295</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-12-23 17:57:17</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44188.74811342593</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7763,10 +7587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-12-23 17:51:56</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44188.74439814815</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7826,10 +7648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-12-23 17:38:42</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44188.73520833333</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7913,10 +7733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-12-23 17:35:29</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44188.73297453704</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7984,10 +7802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-12-23 17:34:06</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44188.73201388889</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8055,10 +7871,8 @@
           <t>3855839321</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-12-23 17:20:31</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44188.72258101852</v>
       </c>
       <c r="I102" t="n">
         <v>25</v>
@@ -8134,10 +7948,8 @@
           <t>3856054356</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-12-23 17:05:04</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44188.71185185185</v>
       </c>
       <c r="I103" t="n">
         <v>6</v>
@@ -8213,10 +8025,8 @@
           <t>3855839321</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-12-23 17:04:16</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44188.71129629629</v>
       </c>
       <c r="I104" t="n">
         <v>10</v>
@@ -8276,10 +8086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-12-23 17:03:30</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44188.71076388889</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8351,10 +8159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-12-23 17:01:52</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44188.70962962963</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8422,10 +8228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-12-23 17:01:29</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44188.70936342593</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8485,10 +8289,8 @@
           <t>3855990703</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-12-23 16:56:31</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44188.70591435185</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8560,10 +8362,8 @@
           <t>3855839321</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-12-23 16:47:21</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44188.69954861111</v>
       </c>
       <c r="I109" t="n">
         <v>53</v>
@@ -8636,10 +8436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-12-23 16:42:13</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44188.69598379629</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8707,10 +8505,8 @@
           <t>3855559528</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-12-23 16:20:09</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44188.68065972222</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8778,10 +8574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-12-23 16:19:44</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44188.68037037037</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8849,10 +8643,8 @@
           <t>3854024385</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-12-23 16:11:43</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44188.67480324074</v>
       </c>
       <c r="I113" t="n">
         <v>2</v>
@@ -8920,10 +8712,8 @@
           <t>3855437105</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-12-23 16:08:14</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44188.67238425926</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8991,10 +8781,8 @@
           <t>3852509469</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-12-23 16:05:46</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44188.6706712963</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -9058,10 +8846,8 @@
           <t>3853884440</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-12-23 16:05:00</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44188.67013888889</v>
       </c>
       <c r="I116" t="n">
         <v>18</v>
@@ -9125,10 +8911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-12-23 16:04:40</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44188.66990740741</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9188,10 +8972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-12-23 16:04:04</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44188.66949074074</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9255,10 +9037,8 @@
           <t>3855328854</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-12-23 16:01:03</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44188.66739583333</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9326,10 +9106,8 @@
           <t>3855328305</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-12-23 16:00:27</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44188.66697916666</v>
       </c>
       <c r="I120" t="n">
         <v>24</v>
@@ -9393,10 +9171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-12-23 16:00:07</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44188.66674768519</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9464,10 +9240,8 @@
           <t>3855340763</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:58:52</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44188.66587962963</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9535,10 +9309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:58:17</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44188.66547453704</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9612,10 +9384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:58:08</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44188.66537037037</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9679,10 +9449,8 @@
           <t>3855297528</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:57:13</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44188.66473379629</v>
       </c>
       <c r="I125" t="n">
         <v>19</v>
@@ -9746,10 +9514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:53:18</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44188.66201388889</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9818,10 +9584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:52:49</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44188.66167824074</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9881,10 +9645,8 @@
           <t>3855270350</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:52:34</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44188.66150462963</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9948,10 +9710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:51:24</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44188.66069444444</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -10027,10 +9787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:49:36</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44188.65944444444</v>
       </c>
       <c r="I130" t="n">
         <v>2</v>
@@ -10102,10 +9860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:49:26</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44188.6593287037</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10173,10 +9929,8 @@
           <t>3855178611</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:48:57</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44188.65899305556</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10244,10 +9998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:43:26</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44188.65516203704</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10326,10 +10078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:40:33</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44188.65315972222</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10397,10 +10147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:30:18</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44188.64604166667</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10472,10 +10220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:25:19</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44188.64258101852</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10569,10 +10315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:23:04</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44188.64101851852</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10640,10 +10384,8 @@
           <t>3853884440</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:22:38</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44188.64071759259</v>
       </c>
       <c r="I138" t="n">
         <v>86</v>
@@ -10715,10 +10457,8 @@
           <t>3854804418</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:21:32</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44188.63995370371</v>
       </c>
       <c r="I139" t="n">
         <v>2</v>
@@ -10782,10 +10522,8 @@
           <t>3854817672</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:20:41</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44188.63936342593</v>
       </c>
       <c r="I140" t="n">
         <v>5</v>
@@ -10865,10 +10603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:20:32</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44188.63925925926</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10940,10 +10676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:15:51</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44188.63600694444</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -11012,10 +10746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:12:13</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44188.63348379629</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11088,10 +10820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:08:36</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44188.63097222222</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11171,10 +10901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-12-23 15:00:47</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44188.62554398148</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11242,10 +10970,8 @@
           <t>3853884440</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:53:03</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44188.62017361111</v>
       </c>
       <c r="I146" t="n">
         <v>9</v>
@@ -11313,10 +11039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:52:52</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44188.6200462963</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11388,10 +11112,8 @@
           <t>3854438578</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:49:03</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44188.61739583333</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11463,10 +11185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:39:10</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44188.61053240741</v>
       </c>
       <c r="I149" t="n">
         <v>6</v>
@@ -11538,10 +11258,8 @@
           <t>3854351055</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:38:59</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44188.61040509259</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11609,10 +11327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:37:38</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44188.60946759259</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11688,10 +11404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:33:10</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44188.60636574074</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11763,10 +11477,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:25:22</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44188.60094907408</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11838,10 +11550,8 @@
           <t>3854075551</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:22:42</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44188.59909722222</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11909,10 +11619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:21:18</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44188.598125</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11980,10 +11688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:20:36</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44188.59763888889</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -12059,10 +11765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:19:29</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44188.59686342593</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12126,10 +11830,8 @@
           <t>3854120522</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:19:19</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44188.59674768519</v>
       </c>
       <c r="I158" t="n">
         <v>7</v>
@@ -12197,10 +11899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:19:16</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44188.59671296296</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12276,10 +11976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:17:46</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44188.59567129629</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12347,10 +12045,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:17:00</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44188.59513888889</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12415,10 +12111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:15:48</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44188.59430555555</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12486,10 +12180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:14:01</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44188.59306712963</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12565,10 +12257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:11:01</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44188.5909837963</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12632,10 +12322,8 @@
           <t>3854082135</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:09:24</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44188.58986111111</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12711,10 +12399,8 @@
           <t>3854075551</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:08:28</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44188.58921296296</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12778,10 +12464,8 @@
           <t>3854075551</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:07:41</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44188.58866898148</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12849,10 +12533,8 @@
           <t>3854075551</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:07:10</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44188.58831018519</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12916,10 +12598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:06:23</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44188.5877662037</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12995,10 +12675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:05:46</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44188.58733796296</v>
       </c>
       <c r="I170" t="n">
         <v>2</v>
@@ -13074,10 +12752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:05:03</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44188.58684027778</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -13149,10 +12825,8 @@
           <t>3854068516</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:04:56</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44188.58675925926</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13216,10 +12890,8 @@
           <t>3854024385</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:04:13</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44188.58626157408</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13295,10 +12967,8 @@
           <t>3854024385</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:03:17</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44188.58561342592</v>
       </c>
       <c r="I174" t="n">
         <v>11</v>
@@ -13366,10 +13036,8 @@
           <t>3854024385</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-12-23 14:00:41</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44188.58380787037</v>
       </c>
       <c r="I175" t="n">
         <v>9</v>
@@ -13445,10 +13113,8 @@
           <t>3854024385</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:59:01</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44188.58265046297</v>
       </c>
       <c r="I176" t="n">
         <v>5</v>
@@ -13516,10 +13182,8 @@
           <t>3854053481</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:58:54</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44188.58256944444</v>
       </c>
       <c r="I177" t="n">
         <v>4</v>
@@ -13587,10 +13251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:58:15</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44188.58211805556</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13662,10 +13324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:57:21</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44188.58149305556</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13729,10 +13389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:56:17</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44188.58075231482</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13796,10 +13454,8 @@
           <t>3854041042</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:55:31</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44188.58021990741</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13874,10 +13530,8 @@
           <t>3854029935</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:54:14</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44188.5793287037</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13952,10 +13606,8 @@
           <t>3854033779</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:53:00</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44188.57847222222</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -14028,10 +13680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:52:57</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44188.5784375</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -14106,10 +13756,8 @@
           <t>3854038317</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:52:54</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44188.57840277778</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -14184,10 +13832,8 @@
           <t>3854024385</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:50:25</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44188.57667824074</v>
       </c>
       <c r="I186" t="n">
         <v>61</v>
@@ -14263,10 +13909,8 @@
           <t>3854030534</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:49:16</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44188.57587962963</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14334,10 +13978,8 @@
           <t>3854012321</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:49:10</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44188.57581018518</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14413,10 +14055,8 @@
           <t>3854018557</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:48:50</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44188.57557870371</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14492,10 +14132,8 @@
           <t>3854024385</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:48:22</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44188.57525462963</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14563,10 +14201,8 @@
           <t>3854018557</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:47:02</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44188.5743287037</v>
       </c>
       <c r="I191" t="n">
         <v>4</v>
@@ -14634,10 +14270,8 @@
           <t>3854017796</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:46:11</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44188.57373842593</v>
       </c>
       <c r="I192" t="n">
         <v>2</v>
@@ -14697,10 +14331,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:46:07</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44188.57369212963</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14772,10 +14404,8 @@
           <t>3854012321</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:45:21</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44188.57315972223</v>
       </c>
       <c r="I194" t="n">
         <v>21</v>
@@ -14843,10 +14473,8 @@
           <t>3854020374</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:43:52</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44188.57212962963</v>
       </c>
       <c r="I195" t="n">
         <v>4</v>
@@ -14919,10 +14547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:43:04</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44188.57157407407</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14990,10 +14616,8 @@
           <t>3852846173</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:41:56</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44188.57078703704</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -15065,10 +14689,8 @@
           <t>3854008368</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:41:38</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44188.5705787037</v>
       </c>
       <c r="I198" t="n">
         <v>6</v>
@@ -15144,10 +14766,8 @@
           <t>3852846173</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:41:16</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44188.57032407408</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15211,10 +14831,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:41:15</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44188.5703125</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15282,10 +14900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:40:10</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44188.56956018518</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15353,10 +14969,8 @@
           <t>3852846173</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:40:05</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44188.56950231481</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15428,10 +15042,8 @@
           <t>3853987663</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:34:59</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44188.56596064815</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15507,10 +15119,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:34:53</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44188.5658912037</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15582,10 +15192,8 @@
           <t>3853982679</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:34:48</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44188.56583333333</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15649,10 +15257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:33:43</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44188.56508101852</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15720,10 +15326,8 @@
           <t>3853990388</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:33:07</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44188.56466435185</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15791,10 +15395,8 @@
           <t>3853974266</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:32:34</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44188.56428240741</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15862,10 +15464,8 @@
           <t>3853974560</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:31:45</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44188.56371527778</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15933,10 +15533,8 @@
           <t>3853974266</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:31:26</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44188.56349537037</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -16004,10 +15602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:30:47</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44188.56304398148</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -16075,10 +15671,8 @@
           <t>3853973134</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:30:16</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44188.56268518518</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16156,10 +15750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:29:46</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44188.56233796296</v>
       </c>
       <c r="I213" t="n">
         <v>483</v>
@@ -16235,10 +15827,8 @@
           <t>3853967312</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:29:12</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44188.56194444445</v>
       </c>
       <c r="I214" t="n">
         <v>7</v>
@@ -16298,10 +15888,8 @@
           <t>3853967126</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:29:01</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44188.56181712963</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16365,10 +15953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:27:20</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44188.56064814814</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16440,10 +16026,8 @@
           <t>3853965485</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:27:20</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44188.56064814814</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16511,10 +16095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:26:10</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44188.55983796297</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16578,10 +16160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:24:46</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44188.55886574074</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16653,10 +16233,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:23:10</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44188.55775462963</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16733,10 +16311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:22:49</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44188.55751157407</v>
       </c>
       <c r="I221" t="n">
         <v>84</v>
@@ -16800,10 +16376,8 @@
           <t>3853949510</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:22:22</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44188.55719907407</v>
       </c>
       <c r="I222" t="n">
         <v>2</v>
@@ -16879,10 +16453,8 @@
           <t>3852596277</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:21:53</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44188.55686342593</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16958,10 +16530,8 @@
           <t>3853943786</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:21:08</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44188.55634259259</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -17033,10 +16603,8 @@
           <t>3853948113</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:21:03</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44188.55628472222</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -17104,10 +16672,8 @@
           <t>3853942381</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:19:48</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44188.55541666667</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17175,10 +16741,8 @@
           <t>3853946461</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:19:32</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44188.55523148148</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17250,10 +16814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:19:02</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44188.55488425926</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17321,10 +16883,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:18:59</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44188.55484953704</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17392,10 +16952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:18:14</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44188.55432870371</v>
       </c>
       <c r="I230" t="n">
         <v>4</v>
@@ -17459,10 +17017,8 @@
           <t>3853929817</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:17:23</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44188.55373842592</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17538,10 +17094,8 @@
           <t>3853924014</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:16:07</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44188.5528587963</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17617,10 +17171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:15:03</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44188.55211805556</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17696,10 +17248,8 @@
           <t>3852509469</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:14:00</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44188.55138888889</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17767,10 +17317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:12:46</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44188.5505324074</v>
       </c>
       <c r="I235" t="n">
         <v>5</v>
@@ -17842,10 +17390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:12:25</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44188.55028935185</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17913,10 +17459,8 @@
           <t>3853911913</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:10:18</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44188.54881944445</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17980,10 +17524,8 @@
           <t>3853898604</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:07:22</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44188.54678240741</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -18047,10 +17589,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:07:09</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44188.54663194445</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18122,10 +17662,8 @@
           <t>3853902490</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:06:42</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44188.54631944445</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -18197,10 +17735,8 @@
           <t>3853893727</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:06:41</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44188.54630787037</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18276,10 +17812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:05:34</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44188.54553240741</v>
       </c>
       <c r="I242" t="n">
         <v>2</v>
@@ -18355,10 +17889,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:04:05</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44188.54450231481</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18430,10 +17962,8 @@
           <t>3853884440</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:03:51</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44188.54434027777</v>
       </c>
       <c r="I244" t="n">
         <v>124</v>
@@ -18509,10 +18039,8 @@
           <t>3853886294</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-12-23 13:01:27</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44188.54267361111</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18588,10 +18116,8 @@
           <t>3853869556</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:59:45</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44188.54149305556</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18666,10 +18192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:59:25</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44188.54126157407</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18733,10 +18257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:59:24</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44188.54125</v>
       </c>
       <c r="I248" t="n">
         <v>3</v>
@@ -18804,10 +18326,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:59:10</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44188.54108796296</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18876,10 +18396,8 @@
           <t>3853868847</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:59:09</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44188.54107638889</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18943,10 +18461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:58:35</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44188.54068287037</v>
       </c>
       <c r="I251" t="n">
         <v>5</v>
@@ -19025,10 +18541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:58:19</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44188.54049768519</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -19092,10 +18606,8 @@
           <t>3853002599</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:57:17</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44188.53978009259</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19163,10 +18675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:57:16</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44188.53976851852</v>
       </c>
       <c r="I254" t="n">
         <v>3</v>
@@ -19234,10 +18744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:56:32</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44188.53925925926</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -19305,10 +18813,8 @@
           <t>3853853917</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:55:05</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44188.53825231481</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19376,10 +18882,8 @@
           <t>3853849810</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:54:51</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44188.53809027778</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19455,10 +18959,8 @@
           <t>3853857912</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:54:45</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44188.53802083333</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19518,10 +19020,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:54:23</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44188.53776620371</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19593,10 +19093,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:53:18</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44188.53701388889</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19672,10 +19170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:52:14</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44188.53627314815</v>
       </c>
       <c r="I261" t="n">
         <v>11</v>
@@ -19747,10 +19243,8 @@
           <t>3853846570</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:52:09</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44188.53621527777</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19826,10 +19320,8 @@
           <t>3853843754</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:51:28</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44188.53574074074</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19889,10 +19381,8 @@
           <t>3853840915</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:49:15</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44188.53420138889</v>
       </c>
       <c r="I264" t="n">
         <v>7</v>
@@ -19968,10 +19458,8 @@
           <t>3853832586</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:48:50</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44188.53391203703</v>
       </c>
       <c r="I265" t="n">
         <v>19</v>
@@ -20031,10 +19519,8 @@
           <t>3853832506</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:48:46</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44188.53386574074</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -20106,10 +19592,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:47:45</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44188.53315972222</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20173,10 +19657,8 @@
           <t>3853831171</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:47:42</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44188.533125</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20248,10 +19730,8 @@
           <t>3853756829</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:46:09</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44188.53204861111</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20327,10 +19807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:45:06</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44188.53131944445</v>
       </c>
       <c r="I270" t="n">
         <v>4</v>
@@ -20398,10 +19876,8 @@
           <t>3853813907</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:43:41</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44188.53033564815</v>
       </c>
       <c r="I271" t="n">
         <v>21</v>
@@ -20465,10 +19941,8 @@
           <t>3853815991</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:43:25</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44188.53015046296</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20540,10 +20014,8 @@
           <t>3852509469</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:42:57</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44188.52982638889</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20611,10 +20083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:42:48</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44188.52972222222</v>
       </c>
       <c r="I274" t="n">
         <v>4</v>
@@ -20678,10 +20148,8 @@
           <t>3852596277</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:42:30</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44188.52951388889</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20757,10 +20225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:41:30</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44188.52881944444</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20825,10 +20291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:40:19</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44188.52799768518</v>
       </c>
       <c r="I277" t="n">
         <v>262</v>
@@ -20896,10 +20360,8 @@
           <t>3853801888</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:40:04</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44188.52782407407</v>
       </c>
       <c r="I278" t="n">
         <v>4</v>
@@ -20975,10 +20437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:39:35</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44188.52748842593</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -21046,10 +20506,8 @@
           <t>3853792238</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:37:39</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44188.52614583333</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21109,10 +20567,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:37:33</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44188.52607638889</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21180,10 +20636,8 @@
           <t>3853784168</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:36:10</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44188.52511574074</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21259,10 +20713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:34:23</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44188.52387731482</v>
       </c>
       <c r="I283" t="n">
         <v>540</v>
@@ -21327,10 +20779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:33:43</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44188.52341435185</v>
       </c>
       <c r="I284" t="n">
         <v>11</v>
@@ -21398,10 +20848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:33:43</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44188.52341435185</v>
       </c>
       <c r="I285" t="n">
         <v>2</v>
@@ -21477,10 +20925,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:33:08</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44188.52300925926</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21548,10 +20994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:33:01</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44188.52292824074</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21627,10 +21071,8 @@
           <t>3853772799</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:32:53</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44188.52283564815</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21706,10 +21148,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:32:29</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44188.52255787037</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21777,10 +21217,8 @@
           <t>3853775114</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:32:01</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44188.5222337963</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21853,10 +21291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:31:22</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44188.52178240741</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21924,10 +21360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:31:12</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44188.52166666667</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21995,10 +21429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:30:42</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44188.52131944444</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -22058,10 +21490,8 @@
           <t>3853762788</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:30:11</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44188.52096064815</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -22133,10 +21563,8 @@
           <t>3852741124</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:29:32</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44188.52050925926</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22213,10 +21641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:29:10</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44188.52025462963</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22292,10 +21718,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:28:58</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44188.52011574074</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22363,10 +21787,8 @@
           <t>3853756829</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:28:04</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44188.51949074074</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22434,10 +21856,8 @@
           <t>3853751564</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:26:14</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44188.51821759259</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22511,10 +21931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:25:38</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44188.51780092593</v>
       </c>
       <c r="I300" t="n">
         <v>23</v>
@@ -22582,10 +22000,8 @@
           <t>3853750118</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:25:09</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44188.51746527778</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22649,10 +22065,8 @@
           <t>3853742703</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:24:41</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44188.5171412037</v>
       </c>
       <c r="I302" t="n">
         <v>3</v>
@@ -22728,10 +22142,8 @@
           <t>3853739194</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:24:26</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44188.51696759259</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22803,10 +22215,8 @@
           <t>3853425756</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:24:22</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44188.51692129629</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22878,10 +22288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:23:53</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44188.51658564815</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22949,10 +22357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:23:14</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44188.51613425926</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -23016,10 +22422,8 @@
           <t>3853737313</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:22:56</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44188.51592592592</v>
       </c>
       <c r="I307" t="n">
         <v>4</v>
@@ -23083,10 +22487,8 @@
           <t>3853732542</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:21:56</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44188.51523148148</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23154,10 +22556,8 @@
           <t>3853728001</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:20:48</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44188.51444444444</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -23234,10 +22634,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:19:46</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44188.51372685185</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23301,10 +22699,8 @@
           <t>3853726069</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:19:11</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44188.51332175926</v>
       </c>
       <c r="I311" t="n">
         <v>1</v>
@@ -23368,10 +22764,8 @@
           <t>3853721967</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:18:32</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44188.51287037037</v>
       </c>
       <c r="I312" t="n">
         <v>4</v>
@@ -23435,10 +22829,8 @@
           <t>3853701822</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:15:38</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44188.51085648148</v>
       </c>
       <c r="I313" t="n">
         <v>3</v>
@@ -23498,10 +22890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:15:35</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44188.51082175926</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23569,10 +22959,8 @@
           <t>3853701548</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:15:23</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44188.51068287037</v>
       </c>
       <c r="I315" t="n">
         <v>2</v>
@@ -23636,10 +23024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:15:11</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44188.51054398148</v>
       </c>
       <c r="I316" t="n">
         <v>22</v>
@@ -23715,10 +23101,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:14:47</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44188.5102662037</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23790,10 +23174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:14:36</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44188.51013888889</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23865,10 +23247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:13:13</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44188.50917824074</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23936,10 +23316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:12:02</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44188.50835648148</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -24009,10 +23387,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:11:55</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44188.50827546296</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24088,10 +23464,8 @@
           <t>3852596277</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:11:48</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44188.50819444445</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24164,10 +23538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:11:32</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44188.50800925926</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -24239,10 +23611,8 @@
           <t>3853633588</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:11:30</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44188.50798611111</v>
       </c>
       <c r="I324" t="n">
         <v>13</v>
@@ -24318,10 +23688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:10:53</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44188.50755787037</v>
       </c>
       <c r="I325" t="n">
         <v>6</v>
@@ -24394,10 +23762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:09:16</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44188.50643518518</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24469,10 +23835,8 @@
           <t>3853611177</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:08:26</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44188.50585648148</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24536,10 +23900,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:08:24</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44188.50583333334</v>
       </c>
       <c r="I328" t="n">
         <v>3</v>
@@ -24607,10 +23969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:08:22</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44188.50581018518</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24686,10 +24046,8 @@
           <t>3853577581</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:06:36</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44188.50458333334</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24753,10 +24111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:06:03</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44188.50420138889</v>
       </c>
       <c r="I331" t="n">
         <v>5</v>
@@ -24824,10 +24180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:06:01</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44188.50417824074</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24887,10 +24241,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:05:17</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44188.50366898148</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24969,10 +24321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:04:22</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44188.50303240741</v>
       </c>
       <c r="I334" t="n">
         <v>512</v>
@@ -25040,10 +24390,8 @@
           <t>3853575097</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:04:22</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44188.50303240741</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25112,10 +24460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:03:59</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44188.5027662037</v>
       </c>
       <c r="I336" t="n">
         <v>211</v>
@@ -25179,10 +24525,8 @@
           <t>3853514500</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:03:48</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44188.50263888889</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25254,10 +24598,8 @@
           <t>3852596277</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:03:30</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44188.50243055556</v>
       </c>
       <c r="I338" t="n">
         <v>2</v>
@@ -25329,10 +24671,8 @@
           <t>3853527713</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:03:19</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44188.50230324074</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25392,10 +24732,8 @@
           <t>3853494661</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:02:49</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44188.50195601852</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25459,10 +24797,8 @@
           <t>3853513204</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:02:36</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44188.50180555556</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25538,10 +24874,8 @@
           <t>3853492223</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-12-23 12:00:39</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44188.50045138889</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25613,10 +24947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:59:24</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44188.49958333333</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25692,10 +25024,8 @@
           <t>3853447539</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:57:23</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44188.49818287037</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25763,10 +25093,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:57:22</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44188.4981712963</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25834,10 +25162,8 @@
           <t>3853428769</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:57:14</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44188.49807870371</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25905,10 +25231,8 @@
           <t>3853446886</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:56:44</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44188.49773148148</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25976,10 +25300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:55:55</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44188.49716435185</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26051,10 +25373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:55:32</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44188.49689814815</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26122,10 +25442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:55:00</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44188.49652777778</v>
       </c>
       <c r="I350" t="n">
         <v>1011</v>
@@ -26193,10 +25511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:54:48</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44188.49638888889</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26264,10 +25580,8 @@
           <t>3853425756</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:54:16</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44188.49601851852</v>
       </c>
       <c r="I352" t="n">
         <v>2</v>
@@ -26339,10 +25653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:53:43</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44188.49563657407</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26418,10 +25730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:53:13</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44188.49528935185</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26485,10 +25795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:49:53</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44188.49297453704</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26556,10 +25864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:48:06</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44188.49173611111</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26627,10 +25933,8 @@
           <t>3853302279</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:47:16</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44188.49115740741</v>
       </c>
       <c r="I357" t="n">
         <v>3</v>
@@ -26702,10 +26006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:47:09</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44188.49107638889</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26773,10 +26075,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:46:43</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44188.49077546296</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26845,10 +26145,8 @@
           <t>3853315964</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:46:41</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44188.49075231481</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26920,10 +26218,8 @@
           <t>3852617472</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:44:05</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44188.48894675926</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26987,10 +26283,8 @@
           <t>3853248107</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:43:39</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44188.48864583333</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -27054,10 +26348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:43:12</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44188.48833333333</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27117,10 +26409,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:43:02</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44188.4882175926</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27184,10 +26474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:42:14</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44188.48766203703</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27259,10 +26547,8 @@
           <t>3853232408</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:42:06</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44188.48756944444</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27330,10 +26616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:41:35</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44188.48721064815</v>
       </c>
       <c r="I367" t="n">
         <v>15</v>
@@ -27402,10 +26686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:40:24</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44188.48638888889</v>
       </c>
       <c r="I368" t="n">
         <v>5</v>
@@ -27469,10 +26751,8 @@
           <t>3853174893</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:40:09</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44188.48621527778</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27548,10 +26828,8 @@
           <t>3853206914</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:39:48</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44188.48597222222</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27615,10 +26893,8 @@
           <t>3853206049</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:38:54</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44188.48534722222</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27694,10 +26970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:38:40</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44188.48518518519</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27770,10 +27044,8 @@
           <t>3853158749</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:38:12</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44188.48486111111</v>
       </c>
       <c r="I373" t="n">
         <v>3</v>
@@ -27841,10 +27113,8 @@
           <t>3853205062</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:37:47</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44188.48457175926</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27905,10 +27175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:36:41</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44188.48380787037</v>
       </c>
       <c r="I375" t="n">
         <v>193</v>
@@ -27986,10 +27254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:36:37</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44188.48376157408</v>
       </c>
       <c r="I376" t="n">
         <v>9</v>
@@ -28053,10 +27319,8 @@
           <t>3853157146</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:36:24</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44188.48361111111</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28132,10 +27396,8 @@
           <t>3853157096</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:36:20</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44188.48356481481</v>
       </c>
       <c r="I378" t="n">
         <v>8</v>
@@ -28207,10 +27469,8 @@
           <t>3853171454</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:36:16</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44188.48351851852</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -28278,10 +27538,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:35:45</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44188.48315972222</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28353,10 +27611,8 @@
           <t>3853138183</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:35:44</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44188.48314814815</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28432,10 +27688,8 @@
           <t>3853170651</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:35:24</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44188.48291666667</v>
       </c>
       <c r="I382" t="n">
         <v>1</v>
@@ -28507,10 +27761,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:35:22</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44188.48289351852</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28583,10 +27835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:35:20</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44188.48287037037</v>
       </c>
       <c r="I384" t="n">
         <v>3</v>
@@ -28660,10 +27910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:35:18</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44188.48284722222</v>
       </c>
       <c r="I385" t="n">
         <v>305</v>
@@ -28731,10 +27979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:34:49</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44188.48251157408</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28798,10 +28044,8 @@
           <t>3853094749</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:34:25</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44188.4822337963</v>
       </c>
       <c r="I387" t="n">
         <v>9</v>
@@ -28873,10 +28117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:33:42</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44188.48173611111</v>
       </c>
       <c r="I388" t="n">
         <v>97</v>
@@ -28948,10 +28190,8 @@
           <t>3853074658</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:33:38</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44188.48168981481</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -29027,10 +28267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:33:36</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44188.48166666667</v>
       </c>
       <c r="I390" t="n">
         <v>1</v>
@@ -29098,10 +28336,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:33:24</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44188.48152777777</v>
       </c>
       <c r="I391" t="n">
         <v>1</v>
@@ -29173,10 +28409,8 @@
           <t>3852615082</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:33:13</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44188.48140046297</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29244,10 +28478,8 @@
           <t>3853093373</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:32:53</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44188.48116898148</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29327,10 +28559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:32:33</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44188.4809375</v>
       </c>
       <c r="I394" t="n">
         <v>3</v>
@@ -29406,10 +28636,8 @@
           <t>3853091892</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:31:58</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44188.4805324074</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29477,10 +28705,8 @@
           <t>3853072992</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:31:44</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44188.48037037037</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29548,10 +28774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:31:42</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44188.48034722222</v>
       </c>
       <c r="I397" t="n">
         <v>8</v>
@@ -29615,10 +28839,8 @@
           <t>3853072489</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:31:10</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44188.47997685185</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29686,10 +28908,8 @@
           <t>3853091892</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:31:09</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44188.47996527778</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29753,10 +28973,8 @@
           <t>3853091181</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:30:21</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44188.47940972223</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29828,10 +29046,8 @@
           <t>3853090227</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:29:17</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44188.47866898148</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
@@ -29907,10 +29123,8 @@
           <t>3853090224</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:29:16</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44188.47865740741</v>
       </c>
       <c r="I402" t="n">
         <v>3</v>
@@ -29974,10 +29188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:28:58</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44188.47844907407</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30049,10 +29261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:28:49</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44188.47834490741</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -30124,10 +29334,8 @@
           <t>3853004248</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:28:08</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44188.47787037037</v>
       </c>
       <c r="I405" t="n">
         <v>4</v>
@@ -30196,10 +29404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:27:45</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44188.47760416667</v>
       </c>
       <c r="I406" t="n">
         <v>7</v>
@@ -30271,10 +29477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:27:21</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44188.47732638889</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30350,10 +29554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:27:16</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44188.47726851852</v>
       </c>
       <c r="I408" t="n">
         <v>1</v>
@@ -30417,10 +29619,8 @@
           <t>3852989016</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:27:12</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44188.47722222222</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30492,10 +29692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:26:32</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44188.47675925926</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30560,10 +29758,8 @@
           <t>3852988446</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:26:30</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44188.47673611111</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30639,10 +29835,8 @@
           <t>3852754829</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:26:15</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44188.4765625</v>
       </c>
       <c r="I412" t="n">
         <v>3</v>
@@ -30702,10 +29896,8 @@
           <t>3853002620</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:26:12</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44188.47652777778</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -30781,10 +29973,8 @@
           <t>3853002599</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:26:11</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44188.4765162037</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30852,10 +30042,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:25:53</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44188.47630787037</v>
       </c>
       <c r="I415" t="n">
         <v>3</v>
@@ -30927,10 +30115,8 @@
           <t>3852987533</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:25:21</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44188.4759375</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30994,10 +30180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:25:01</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44188.47570601852</v>
       </c>
       <c r="I417" t="n">
         <v>39</v>
@@ -31061,10 +30245,8 @@
           <t>3852968552</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:24:40</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44188.47546296296</v>
       </c>
       <c r="I418" t="n">
         <v>6</v>
@@ -31128,10 +30310,8 @@
           <t>3852741299</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:24:38</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44188.47543981481</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31207,10 +30387,8 @@
           <t>3852968055</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:24:08</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44188.47509259259</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31286,10 +30464,8 @@
           <t>3853000631</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:23:47</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44188.47484953704</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31365,10 +30541,8 @@
           <t>3853000355</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:23:28</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44188.47462962963</v>
       </c>
       <c r="I422" t="n">
         <v>3</v>
@@ -31432,10 +30606,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:22:42</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44188.47409722222</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -31503,10 +30675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:22:18</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44188.47381944444</v>
       </c>
       <c r="I424" t="n">
         <v>1</v>
@@ -31574,10 +30744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:22:12</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44188.47375</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31641,10 +30809,8 @@
           <t>3852929159</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:22:04</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44188.4736574074</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31708,10 +30874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:21:57</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44188.47357638889</v>
       </c>
       <c r="I427" t="n">
         <v>4</v>
@@ -31783,10 +30947,8 @@
           <t>3852914414</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:21:42</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44188.47340277778</v>
       </c>
       <c r="I428" t="n">
         <v>5</v>
@@ -31858,10 +31020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:21:19</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44188.47313657407</v>
       </c>
       <c r="I429" t="n">
         <v>560</v>
@@ -31925,10 +31085,8 @@
           <t>3852928317</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:21:02</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44188.47293981481</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31996,10 +31154,8 @@
           <t>3852927972</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:20:39</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44188.47267361111</v>
       </c>
       <c r="I431" t="n">
         <v>2</v>
@@ -32077,10 +31233,8 @@
           <t>3852927505</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:20:07</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44188.47230324074</v>
       </c>
       <c r="I432" t="n">
         <v>9</v>
@@ -32144,10 +31298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:19:49</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44188.47209490741</v>
       </c>
       <c r="I433" t="n">
         <v>1</v>
@@ -32215,10 +31367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:19:45</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44188.47204861111</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32294,10 +31444,8 @@
           <t>3852894124</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:19:39</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44188.47197916666</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32373,10 +31521,8 @@
           <t>3852596277</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:19:27</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44188.47184027778</v>
       </c>
       <c r="I436" t="n">
         <v>1</v>
@@ -32444,10 +31590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:18:48</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44188.47138888889</v>
       </c>
       <c r="I437" t="n">
         <v>1</v>
@@ -32515,10 +31659,8 @@
           <t>3852911835</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:18:38</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44188.47127314815</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32595,10 +31737,8 @@
           <t>3852893173</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:18:37</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44188.47126157407</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32666,10 +31806,8 @@
           <t>3852892926</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:18:22</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44188.47108796296</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32743,10 +31881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:18:12</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44188.47097222223</v>
       </c>
       <c r="I441" t="n">
         <v>46</v>
@@ -32814,10 +31950,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:18:11</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44188.47096064815</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32881,10 +32015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:18:09</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44188.4709375</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32952,10 +32084,8 @@
           <t>3852911151</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:17:50</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44188.47071759259</v>
       </c>
       <c r="I444" t="n">
         <v>1</v>
@@ -33019,10 +32149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:17:04</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44188.47018518519</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -33098,10 +32226,8 @@
           <t>3852891398</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:16:37</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44188.46987268519</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -33173,10 +32299,8 @@
           <t>3852834792</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:16:13</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44188.46959490741</v>
       </c>
       <c r="I447" t="n">
         <v>5</v>
@@ -33248,10 +32372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:16:08</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44188.46953703704</v>
       </c>
       <c r="I448" t="n">
         <v>105</v>
@@ -33315,10 +32437,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:15:56</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44188.46939814815</v>
       </c>
       <c r="I449" t="n">
         <v>9</v>
@@ -33394,10 +32514,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:15:52</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44188.46935185185</v>
       </c>
       <c r="I450" t="n">
         <v>2</v>
@@ -33470,10 +32588,8 @@
           <t>3852834460</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:15:50</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44188.4693287037</v>
       </c>
       <c r="I451" t="n">
         <v>1</v>
@@ -33549,10 +32665,8 @@
           <t>3852848890</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:15:44</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44188.46925925926</v>
       </c>
       <c r="I452" t="n">
         <v>1</v>
@@ -33628,10 +32742,8 @@
           <t>3852834207</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:15:31</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44188.46910879629</v>
       </c>
       <c r="I453" t="n">
         <v>1</v>
@@ -33707,10 +32819,8 @@
           <t>3852890060</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:15:05</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44188.46880787037</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33774,10 +32884,8 @@
           <t>3852848033</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:14:45</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44188.46857638889</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33837,10 +32945,8 @@
           <t>3852847943</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:14:38</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44188.46849537037</v>
       </c>
       <c r="I456" t="n">
         <v>1</v>
@@ -33916,10 +33022,8 @@
           <t>3852686705</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:14:36</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44188.46847222222</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33996,10 +33100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:14:12</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44188.46819444445</v>
       </c>
       <c r="I458" t="n">
         <v>108</v>
@@ -34071,10 +33173,8 @@
           <t>3852596277</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:14:05</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44188.46811342592</v>
       </c>
       <c r="I459" t="n">
         <v>11</v>
@@ -34150,10 +33250,8 @@
           <t>3852832838</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:13:54</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44188.46798611111</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34229,10 +33327,8 @@
           <t>3852847270</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:13:50</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44188.46793981481</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34304,10 +33400,8 @@
           <t>3852741299</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:13:39</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44188.4678125</v>
       </c>
       <c r="I462" t="n">
         <v>8</v>
@@ -34371,10 +33465,8 @@
           <t>3852596277</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:13:07</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44188.46744212963</v>
       </c>
       <c r="I463" t="n">
         <v>3</v>
@@ -34438,10 +33530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:12:47</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44188.46721064814</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34517,10 +33607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:12:38</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44188.46710648148</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34596,10 +33684,8 @@
           <t>3852846173</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:12:32</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44188.46703703704</v>
       </c>
       <c r="I466" t="n">
         <v>53</v>
@@ -34663,10 +33749,8 @@
           <t>3852846119</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:12:29</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44188.46700231481</v>
       </c>
       <c r="I467" t="n">
         <v>1</v>
@@ -34730,10 +33814,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:12:24</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44188.46694444444</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34809,10 +33891,8 @@
           <t>3852831340</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:12:07</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44188.46674768518</v>
       </c>
       <c r="I469" t="n">
         <v>4</v>
@@ -34888,10 +33968,8 @@
           <t>3852817109</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:11:47</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44188.46651620371</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34955,10 +34033,8 @@
           <t>3852596277</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:11:28</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44188.4662962963</v>
       </c>
       <c r="I471" t="n">
         <v>2</v>
@@ -35026,10 +34102,8 @@
           <t>3852596277</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:11:02</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44188.46599537037</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -35105,10 +34179,8 @@
           <t>3852596277</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:10:57</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44188.4659375</v>
       </c>
       <c r="I473" t="n">
         <v>11</v>
@@ -35172,10 +34244,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:10:22</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44188.4655324074</v>
       </c>
       <c r="I474" t="n">
         <v>10</v>
@@ -35243,10 +34313,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:10:21</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44188.46552083334</v>
       </c>
       <c r="I475" t="n">
         <v>7</v>
@@ -35310,10 +34378,8 @@
           <t>3852754829</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:10:19</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44188.46549768518</v>
       </c>
       <c r="I476" t="n">
         <v>41</v>
@@ -35385,10 +34451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:10:17</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44188.46547453704</v>
       </c>
       <c r="I477" t="n">
         <v>269</v>
@@ -35452,10 +34516,8 @@
           <t>3852815611</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:10:05</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44188.46533564815</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35527,10 +34589,8 @@
           <t>3852596277</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:09:52</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44188.46518518519</v>
       </c>
       <c r="I479" t="n">
         <v>4</v>
@@ -35606,10 +34666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:09:49</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44188.46515046297</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35685,10 +34743,8 @@
           <t>3852596277</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:09:41</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44188.46505787037</v>
       </c>
       <c r="I481" t="n">
         <v>5</v>
@@ -35761,10 +34817,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:09:14</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44188.46474537037</v>
       </c>
       <c r="I482" t="n">
         <v>9</v>
@@ -35828,10 +34882,8 @@
           <t>3852753592</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:08:52</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44188.46449074074</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35891,10 +34943,8 @@
           <t>3852596277</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:08:43</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44188.46438657407</v>
       </c>
       <c r="I484" t="n">
         <v>2</v>
@@ -35962,10 +35012,8 @@
           <t>3852744375</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:08:41</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44188.46436342593</v>
       </c>
       <c r="I485" t="n">
         <v>2</v>
@@ -36041,10 +35089,8 @@
           <t>3852596277</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:08:12</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44188.46402777778</v>
       </c>
       <c r="I486" t="n">
         <v>30</v>
@@ -36112,10 +35158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:08:03</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44188.46392361111</v>
       </c>
       <c r="I487" t="n">
         <v>5</v>
@@ -36179,10 +35223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:07:54</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44188.46381944444</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36250,10 +35292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:07:43</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44188.46369212963</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36329,10 +35369,8 @@
           <t>3852752506</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:07:36</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44188.46361111111</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36396,10 +35434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:07:28</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44188.46351851852</v>
       </c>
       <c r="I491" t="n">
         <v>51</v>
@@ -36467,10 +35503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:07:11</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44188.46332175926</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36538,10 +35572,8 @@
           <t>3852596277</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:07:07</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44188.46327546296</v>
       </c>
       <c r="I493" t="n">
         <v>1</v>
@@ -36618,10 +35650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:07:05</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44188.46325231482</v>
       </c>
       <c r="I494" t="n">
         <v>123</v>
@@ -36685,10 +35715,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:07:03</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44188.46322916666</v>
       </c>
       <c r="I495" t="n">
         <v>14</v>
@@ -36760,10 +35788,8 @@
           <t>3852619488</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:07:02</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44188.46321759259</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36839,10 +35865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:07:01</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44188.46320601852</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36910,10 +35934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:06:50</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44188.4630787037</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36985,10 +36007,8 @@
           <t>3852751598</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:06:32</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44188.46287037037</v>
       </c>
       <c r="I499" t="n">
         <v>3</v>
@@ -37060,10 +36080,8 @@
           <t>3852765863</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:06:27</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44188.4628125</v>
       </c>
       <c r="I500" t="n">
         <v>19</v>
@@ -37136,10 +36154,8 @@
           <t>3852742278</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:06:18</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44188.46270833333</v>
       </c>
       <c r="I501" t="n">
         <v>6</v>
@@ -37211,10 +36227,8 @@
           <t>3852742235</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:06:15</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44188.46267361111</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37290,10 +36304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:05:58</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44188.46247685186</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -37361,10 +36373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:05:50</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44188.46238425926</v>
       </c>
       <c r="I504" t="n">
         <v>5</v>
@@ -37440,10 +36450,8 @@
           <t>3852741299</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:05:10</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44188.46192129629</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37519,10 +36527,8 @@
           <t>3852750296</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:05:00</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44188.46180555555</v>
       </c>
       <c r="I506" t="n">
         <v>10</v>
@@ -37598,10 +36604,8 @@
           <t>3852741124</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:04:59</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44188.46179398148</v>
       </c>
       <c r="I507" t="n">
         <v>21</v>
@@ -37669,10 +36673,8 @@
           <t>3852741014</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:04:50</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44188.46168981482</v>
       </c>
       <c r="I508" t="n">
         <v>5</v>
@@ -37740,10 +36742,8 @@
           <t>3852596277</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:04:47</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44188.46165509259</v>
       </c>
       <c r="I509" t="n">
         <v>23</v>
@@ -37807,10 +36807,8 @@
           <t>3852689889</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:04:31</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44188.46146990741</v>
       </c>
       <c r="I510" t="n">
         <v>3</v>
@@ -37878,10 +36876,8 @@
           <t>3852699179</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:04:24</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44188.46138888889</v>
       </c>
       <c r="I511" t="n">
         <v>1</v>
@@ -37957,10 +36953,8 @@
           <t>3852698908</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:04:05</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44188.46116898148</v>
       </c>
       <c r="I512" t="n">
         <v>1</v>
@@ -38036,10 +37030,8 @@
           <t>3852679895</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:03:38</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44188.46085648148</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -38115,10 +37107,8 @@
           <t>3852679864</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:03:36</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44188.46083333333</v>
       </c>
       <c r="I514" t="n">
         <v>29</v>
@@ -38186,10 +37176,8 @@
           <t>3852698428</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:03:31</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44188.46077546296</v>
       </c>
       <c r="I515" t="n">
         <v>5</v>
@@ -38257,10 +37245,8 @@
           <t>3852686705</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:03:26</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44188.46071759259</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38328,10 +37314,8 @@
           <t>3852595329</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:03:18</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44188.460625</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38407,10 +37391,8 @@
           <t>3852698113</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:03:08</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44188.46050925926</v>
       </c>
       <c r="I518" t="n">
         <v>10</v>
@@ -38474,10 +37456,8 @@
           <t>3852698092</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:03:07</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44188.46049768518</v>
       </c>
       <c r="I519" t="n">
         <v>1</v>
@@ -38553,10 +37533,8 @@
           <t>3852679052</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:02:41</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44188.46019675926</v>
       </c>
       <c r="I520" t="n">
         <v>3</v>
@@ -38628,10 +37606,8 @@
           <t>3852697426</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:02:20</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44188.45995370371</v>
       </c>
       <c r="I521" t="n">
         <v>4</v>
@@ -38695,10 +37671,8 @@
           <t>3852678480</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:02:03</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44188.45975694444</v>
       </c>
       <c r="I522" t="n">
         <v>7</v>
@@ -38770,10 +37744,8 @@
           <t>3852596277</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:02:01</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44188.4597337963</v>
       </c>
       <c r="I523" t="n">
         <v>2</v>
@@ -38849,10 +37821,8 @@
           <t>3852687777</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:02:00</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44188.45972222222</v>
       </c>
       <c r="I524" t="n">
         <v>74</v>
@@ -38928,10 +37898,8 @@
           <t>3852678433</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:02:00</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44188.45972222222</v>
       </c>
       <c r="I525" t="n">
         <v>4</v>
@@ -38999,10 +37967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:01:54</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44188.45965277778</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -39070,10 +38036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:01:42</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44188.45951388889</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -39149,10 +38113,8 @@
           <t>3852696919</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:01:41</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44188.45950231481</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39228,10 +38190,8 @@
           <t>3852687167</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:01:18</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44188.45923611111</v>
       </c>
       <c r="I529" t="n">
         <v>12</v>
@@ -39303,10 +38263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:01:05</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44188.45908564814</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39370,10 +38328,8 @@
           <t>3852677423</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:00:54</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44188.45895833334</v>
       </c>
       <c r="I531" t="n">
         <v>41</v>
@@ -39437,10 +38393,8 @@
           <t>3852696207</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:00:51</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44188.45892361111</v>
       </c>
       <c r="I532" t="n">
         <v>5</v>
@@ -39512,10 +38466,8 @@
           <t>3852686705</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:00:48</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44188.45888888889</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39591,10 +38543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:00:45</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44188.45885416667</v>
       </c>
       <c r="I534" t="n">
         <v>59</v>
@@ -39662,10 +38612,8 @@
           <t>3852619488</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:00:33</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44188.45871527777</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39741,10 +38689,8 @@
           <t>3852676876</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:00:19</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44188.45855324074</v>
       </c>
       <c r="I536" t="n">
         <v>7</v>
@@ -39820,10 +38766,8 @@
           <t>3852686125</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:00:07</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44188.45841435185</v>
       </c>
       <c r="I537" t="n">
         <v>8</v>
@@ -39895,10 +38839,8 @@
           <t>3852695647</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-12-23 11:00:07</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44188.45841435185</v>
       </c>
       <c r="I538" t="n">
         <v>9</v>
@@ -39970,10 +38912,8 @@
           <t>3852676584</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:59:57</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44188.45829861111</v>
       </c>
       <c r="I539" t="n">
         <v>2</v>
@@ -40041,10 +38981,8 @@
           <t>3852685788</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:59:40</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44188.45810185185</v>
       </c>
       <c r="I540" t="n">
         <v>32</v>
@@ -40116,10 +39054,8 @@
           <t>3852595329</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:59:27</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44188.45795138889</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -40195,10 +39131,8 @@
           <t>3852695060</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:59:20</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44188.45787037037</v>
       </c>
       <c r="I542" t="n">
         <v>21</v>
@@ -40275,10 +39209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:58:28</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44188.45726851852</v>
       </c>
       <c r="I543" t="n">
         <v>1</v>
@@ -40350,10 +39282,8 @@
           <t>3852675185</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:58:17</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44188.4571412037</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40429,10 +39359,8 @@
           <t>3852595329</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:58:13</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44188.4570949074</v>
       </c>
       <c r="I545" t="n">
         <v>1</v>
@@ -40508,10 +39436,8 @@
           <t>3852619488</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:58:10</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44188.45706018519</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40587,10 +39513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:58:05</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44188.45700231481</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40658,10 +39582,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:57:38</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44188.45668981481</v>
       </c>
       <c r="I548" t="n">
         <v>31</v>
@@ -40729,10 +39651,8 @@
           <t>3852621295</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:57:30</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44188.45659722222</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40808,10 +39728,8 @@
           <t>3852595329</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:57:17</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44188.45644675926</v>
       </c>
       <c r="I550" t="n">
         <v>2</v>
@@ -40883,10 +39801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:57:16</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44188.45643518519</v>
       </c>
       <c r="I551" t="n">
         <v>6</v>
@@ -40962,10 +39878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:57:10</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44188.45636574074</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -41033,10 +39947,8 @@
           <t>3852617764</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:56:03</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44188.45559027778</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -41104,10 +40016,8 @@
           <t>3852512125</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:55:56</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44188.45550925926</v>
       </c>
       <c r="I554" t="n">
         <v>2</v>
@@ -41175,10 +40085,8 @@
           <t>3852617472</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:55:42</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44188.45534722223</v>
       </c>
       <c r="I555" t="n">
         <v>17</v>
@@ -41254,10 +40162,8 @@
           <t>3852617302</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:55:29</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44188.45519675926</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41333,10 +40239,8 @@
           <t>3852621904</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:55:22</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44188.45511574074</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41412,10 +40316,8 @@
           <t>3852621845</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:55:18</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44188.45506944445</v>
       </c>
       <c r="I558" t="n">
         <v>355</v>
@@ -41487,10 +40389,8 @@
           <t>3852617017</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:55:09</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44188.45496527778</v>
       </c>
       <c r="I559" t="n">
         <v>148</v>
@@ -41566,10 +40466,8 @@
           <t>3852512125</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:54:52</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44188.45476851852</v>
       </c>
       <c r="I560" t="n">
         <v>3</v>
@@ -41641,10 +40539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:54:46</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44188.45469907407</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41712,10 +40608,8 @@
           <t>3852616630</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:54:41</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44188.4546412037</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41791,10 +40685,8 @@
           <t>3852621295</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:54:34</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44188.45456018519</v>
       </c>
       <c r="I563" t="n">
         <v>9</v>
@@ -41870,10 +40762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:54:14</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44188.4543287037</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41941,10 +40831,8 @@
           <t>3852596767</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:54:01</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44188.45417824074</v>
       </c>
       <c r="I565" t="n">
         <v>14</v>
@@ -42020,10 +40908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:53:55</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44188.45410879629</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -42087,10 +40973,8 @@
           <t>3852595329</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:53:34</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44188.45386574074</v>
       </c>
       <c r="I567" t="n">
         <v>4</v>
@@ -42166,10 +41050,8 @@
           <t>3852596277</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:53:23</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44188.45373842592</v>
       </c>
       <c r="I568" t="n">
         <v>8</v>
@@ -42245,10 +41127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:53:19</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44188.45369212963</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -42316,10 +41196,8 @@
           <t>3852596174</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:53:16</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44188.45365740741</v>
       </c>
       <c r="I570" t="n">
         <v>3</v>
@@ -42379,10 +41257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:53:02</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44188.45349537037</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42455,10 +41331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:53:02</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44188.45349537037</v>
       </c>
       <c r="I572" t="n">
         <v>114</v>
@@ -42522,10 +41396,8 @@
           <t>3852615082</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:52:50</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44188.45335648148</v>
       </c>
       <c r="I573" t="n">
         <v>29</v>
@@ -42593,10 +41465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:52:37</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44188.45320601852</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42668,10 +41538,8 @@
           <t>3852509777</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:52:31</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44188.45313657408</v>
       </c>
       <c r="I575" t="n">
         <v>1</v>
@@ -42747,10 +41615,8 @@
           <t>3852509469</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:52:06</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44188.45284722222</v>
       </c>
       <c r="I576" t="n">
         <v>19</v>
@@ -42818,10 +41684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:51:59</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44188.45276620371</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42889,10 +41753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:51:07</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44188.45216435185</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42960,10 +41822,8 @@
           <t>3852494399</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:51:06</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44188.45215277778</v>
       </c>
       <c r="I579" t="n">
         <v>8</v>
@@ -43033,10 +41893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:50:44</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44188.45189814815</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -43104,10 +41962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:50:21</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44188.45163194444</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -43175,10 +42031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:50:14</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44188.45155092593</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -43254,10 +42108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:49:49</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44188.45126157408</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -43325,10 +42177,8 @@
           <t>3852507530</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:49:34</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44188.45108796296</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43396,10 +42246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:49:29</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44188.45103009259</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43474,10 +42322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:49:28</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44188.45101851852</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43557,10 +42403,8 @@
           <t>3852492953</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:49:24</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44188.45097222222</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43624,10 +42468,8 @@
           <t>3852512125</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:49:05</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44188.45075231481</v>
       </c>
       <c r="I588" t="n">
         <v>22</v>
@@ -43695,10 +42537,8 @@
           <t>3852507033</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:48:57</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44188.45065972222</v>
       </c>
       <c r="I589" t="n">
         <v>2</v>
@@ -43770,10 +42610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:48:55</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44188.45063657407</v>
       </c>
       <c r="I590" t="n">
         <v>1</v>
@@ -43837,10 +42675,8 @@
           <t>3852511923</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:48:50</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44188.45057870371</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43916,10 +42752,8 @@
           <t>3852511275</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:48:00</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44188.45</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43987,10 +42821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:47:53</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44188.44991898148</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -44066,10 +42898,8 @@
           <t>3852505989</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:47:37</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44188.4497337963</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -44141,10 +42971,8 @@
           <t>3852505937</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:47:33</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44188.4496875</v>
       </c>
       <c r="I595" t="n">
         <v>2</v>
@@ -44212,10 +43040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:46:14</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44188.44877314815</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -44287,10 +43113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:45:56</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44188.44856481482</v>
       </c>
       <c r="I597" t="n">
         <v>2</v>
@@ -44363,10 +43187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:45:00</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44188.44791666666</v>
       </c>
       <c r="I598" t="n">
         <v>397</v>
@@ -44434,10 +43256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:44:53</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44188.44783564815</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44501,10 +43321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:44:41</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44188.44769675926</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44580,10 +43398,8 @@
           <t>3852413301</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:44:27</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44188.44753472223</v>
       </c>
       <c r="I601" t="n">
         <v>1</v>
@@ -44652,10 +43468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:44:11</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44188.44734953704</v>
       </c>
       <c r="I602" t="n">
         <v>47</v>
@@ -44719,10 +43533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:44:07</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44188.44730324074</v>
       </c>
       <c r="I603" t="n">
         <v>1</v>
@@ -44792,10 +43604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:43:32</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44188.44689814815</v>
       </c>
       <c r="I604" t="n">
         <v>77</v>
@@ -44863,10 +43673,8 @@
           <t>3852407190</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:42:52</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44188.44643518519</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44938,10 +43746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:42:50</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44188.44641203704</v>
       </c>
       <c r="I606" t="n">
         <v>255</v>
@@ -45013,10 +43819,8 @@
           <t>3852407126</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:42:46</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44188.44636574074</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -45080,10 +43884,8 @@
           <t>3852406029</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:42:40</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44188.44629629629</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -45151,10 +43953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:41:55</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44188.44577546296</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -45222,10 +44022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:41:54</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44188.44576388889</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -45293,10 +44091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:41:47</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44188.44568287037</v>
       </c>
       <c r="I611" t="n">
         <v>1</v>
@@ -45364,10 +44160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:41:38</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44188.4455787037</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -45435,10 +44229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:41:26</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44188.44543981482</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
@@ -45506,10 +44298,8 @@
           <t>3852406029</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:41:24</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44188.44541666667</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -45585,10 +44375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:41:06</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44188.44520833333</v>
       </c>
       <c r="I615" t="n">
         <v>139</v>
@@ -45656,10 +44444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:40:23</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44188.44471064815</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45731,10 +44517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:40:23</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44188.44471064815</v>
       </c>
       <c r="I617" t="n">
         <v>2</v>
@@ -45802,10 +44586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:40:21</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44188.4446875</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45873,10 +44655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:40:17</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44188.44464120371</v>
       </c>
       <c r="I619" t="n">
         <v>33</v>
@@ -45952,10 +44732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:40:03</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44188.44447916667</v>
       </c>
       <c r="I620" t="n">
         <v>1247</v>
@@ -46019,10 +44797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:40:01</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44188.44445601852</v>
       </c>
       <c r="I621" t="n">
         <v>7</v>
@@ -46094,10 +44870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:39:27</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44188.4440625</v>
       </c>
       <c r="I622" t="n">
         <v>1</v>
@@ -46166,10 +44940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:39:22</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44188.44400462963</v>
       </c>
       <c r="I623" t="n">
         <v>221</v>
@@ -46233,10 +45005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:39:11</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44188.44387731481</v>
       </c>
       <c r="I624" t="n">
         <v>4</v>
@@ -46304,10 +45074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:38:16</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44188.44324074074</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -46375,10 +45143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:38:12</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44188.44319444444</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -46446,10 +45212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:38:08</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44188.44314814815</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
@@ -46521,10 +45285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:37:41</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44188.44283564815</v>
       </c>
       <c r="I628" t="n">
         <v>9</v>
@@ -46593,10 +45355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:37:25</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44188.44265046297</v>
       </c>
       <c r="I629" t="n">
         <v>134</v>
@@ -46664,10 +45424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:37:07</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44188.44244212963</v>
       </c>
       <c r="I630" t="n">
         <v>56</v>
@@ -46735,10 +45493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:36:59</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44188.44234953704</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46811,10 +45567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:36:57</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44188.44232638889</v>
       </c>
       <c r="I632" t="n">
         <v>1</v>
@@ -46882,10 +45636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:36:44</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44188.44217592593</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46949,10 +45701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:36:40</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44188.44212962963</v>
       </c>
       <c r="I634" t="n">
         <v>10</v>
@@ -47030,10 +45780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:36:18</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44188.441875</v>
       </c>
       <c r="I635" t="n">
         <v>1597</v>
@@ -47105,10 +45853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:36:09</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44188.44177083333</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -47181,10 +45927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:36:05</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44188.44172453704</v>
       </c>
       <c r="I637" t="n">
         <v>1</v>
@@ -47256,10 +46000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:35:45</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44188.44149305556</v>
       </c>
       <c r="I638" t="n">
         <v>4</v>
@@ -47323,10 +46065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:35:38</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44188.44141203703</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -47402,10 +46142,8 @@
           <t>3852386574</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:35:37</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44188.44140046297</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -47473,10 +46211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:35:31</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44188.44133101852</v>
       </c>
       <c r="I641" t="n">
         <v>6</v>
@@ -47540,10 +46276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:35:26</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44188.44127314815</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -47611,10 +46345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:35:25</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44188.44126157407</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
@@ -47691,10 +46423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:35:19</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44188.44119212963</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -47770,10 +46500,8 @@
           <t>3852386278</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:35:16</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44188.4411574074</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
@@ -47833,10 +46561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:35:05</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44188.4410300926</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
@@ -47908,10 +46634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:59</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44188.44096064815</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -47979,10 +46703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:53</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44188.4408912037</v>
       </c>
       <c r="I648" t="n">
         <v>1</v>
@@ -48046,10 +46768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:52</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44188.44087962963</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
@@ -48113,10 +46833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:49</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44188.44084490741</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -48180,10 +46898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:48</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44188.44083333333</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
@@ -48251,10 +46967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:46</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44188.44081018519</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
@@ -48318,10 +47032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:42</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44188.44076388889</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -48381,10 +47093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:37</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44188.44070601852</v>
       </c>
       <c r="I654" t="n">
         <v>5</v>
@@ -48448,10 +47158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:36</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44188.44069444444</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
@@ -48511,10 +47219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:35</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44188.44068287037</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
@@ -48578,10 +47284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:34</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44188.4406712963</v>
       </c>
       <c r="I657" t="n">
         <v>2</v>
@@ -48649,10 +47353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:32</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44188.44064814815</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
@@ -48724,10 +47426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:30</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44188.440625</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
@@ -48791,10 +47491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:30</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44188.440625</v>
       </c>
       <c r="I660" t="n">
         <v>5</v>
@@ -48866,10 +47564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:28</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44188.44060185185</v>
       </c>
       <c r="I661" t="n">
         <v>4</v>
@@ -48962,10 +47658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:22</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44188.44053240741</v>
       </c>
       <c r="I662" t="n">
         <v>70</v>
@@ -49033,10 +47727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:21</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44188.44052083333</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
@@ -49100,10 +47792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:20</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44188.44050925926</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
@@ -49175,10 +47865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:19</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44188.44049768519</v>
       </c>
       <c r="I665" t="n">
         <v>8</v>
@@ -49242,10 +47930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:18</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44188.44048611111</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
@@ -49309,10 +47995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:15</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44188.44045138889</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
@@ -49388,10 +48072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:12</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44188.44041666666</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
@@ -49451,10 +48133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:09</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44188.44038194444</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -49526,10 +48206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2020-12-23 10:34:04</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44188.44032407407</v>
       </c>
       <c r="I670" t="n">
         <v>1</v>
